--- a/02. Intermediate Lookups.xlsx
+++ b/02. Intermediate Lookups.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\us20726\Documents\excellent_at_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excellent_at_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0A8083-7ECF-4DB0-9433-7EF4B86AF776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2220" windowWidth="15360" windowHeight="9945"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="2" r:id="rId1"/>
@@ -17,26 +18,23 @@
     <sheet name="INDEX(MATCH)" sheetId="4" r:id="rId3"/>
     <sheet name="OFFSET" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="reporting_month">[1]Reporting!$B$3</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="82">
-  <si>
-    <t>We can address the hard-coded row and column numbers on the next tab.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="86">
   <si>
     <t>INDEX() only returns a single cell's value. It will not allow calculations on a range of data.</t>
   </si>
@@ -990,15 +988,6 @@
     <t>=AVERAGE(OFFSET($B$3,MATCH($C$13,$B$4:$B$8,0),MATCH($C$14,$C$3:$L$3,0),1,2))</t>
   </si>
   <si>
-    <t>To resolve this, wrap your OFFSET() function inside of another aggregation function such as SUM() or AVERAGE().</t>
-  </si>
-  <si>
-    <t>This is because you are having Excel return a range of cells, without telling it what calculation to run on that collection of cells.</t>
-  </si>
-  <si>
-    <t>Directly referencing more than one cell will result in a #VALUE error.</t>
-  </si>
-  <si>
     <t>=OFFSET($B$3,MATCH($C$13,$B$4:$B$8,0),MATCH($C$14,$C$3:$L$3,0),1,2)</t>
   </si>
   <si>
@@ -1392,23 +1381,40 @@
   </si>
   <si>
     <t>TLDR:</t>
+  </si>
+  <si>
+    <t>We can address the hard-coded row and column numbers using the MATCH function which is explained on the next tab.</t>
+  </si>
+  <si>
+    <t>Having OFFSET return more than one cell will result in a #VALUE error.</t>
+  </si>
+  <si>
+    <t>This is because you are having Excel return a range of cells, without telling it what aggregating calculation to run on that collection of cells.</t>
+  </si>
+  <si>
+    <t>=SUM(OFFSET($B$3,MATCH($C$13,$B$4:$B$8,0),MATCH($C$14,$C$3:$L$3,0),1,2))</t>
+  </si>
+  <si>
+    <t>=MAX(OFFSET($B$3,MATCH($C$13,$B$4:$B$8,0),MATCH($C$14,$C$3:$L$3,0),1,2))</t>
+  </si>
+  <si>
+    <t>=MIN(OFFSET($B$3,MATCH($C$13,$B$4:$B$8,0),MATCH($C$14,$C$3:$L$3,0),1,2))</t>
+  </si>
+  <si>
+    <t>=STDEV.P(OFFSET($B$3,MATCH($C$13,$B$4:$B$8,0),MATCH($C$14,$C$3:$L$3,0),1,2))</t>
+  </si>
+  <si>
+    <t>To resolve this, wrap your OFFSET() function inside of another aggregation function such as SUM() or AVERAGE(), MAX/MIN() and STDEV.P() will work.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1493,6 +1499,13 @@
       <b/>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1812,28 +1825,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1841,7 +1854,7 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1862,13 +1875,13 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1877,7 +1890,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1886,43 +1899,43 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1932,23 +1945,28 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Input" xfId="1" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1958,6 +1976,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Introduction"/>
+      <sheetName val="Reporting"/>
+      <sheetName val="Finance Example Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="B3">
+            <v>43647</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2256,7 +2297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2271,83 +2312,83 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C1" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="19">
         <v>43466</v>
       </c>
       <c r="D2" s="19">
-        <f>EOMONTH(C2,0)+1</f>
+        <f t="shared" ref="D2:L2" si="0">EOMONTH(C2,0)+1</f>
         <v>43497</v>
       </c>
       <c r="E2" s="19">
-        <f>EOMONTH(D2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43525</v>
       </c>
       <c r="F2" s="19">
-        <f>EOMONTH(E2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43556</v>
       </c>
       <c r="G2" s="19">
-        <f>EOMONTH(F2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43586</v>
       </c>
       <c r="H2" s="19">
-        <f>EOMONTH(G2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43617</v>
       </c>
       <c r="I2" s="19">
-        <f>EOMONTH(H2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43647</v>
       </c>
       <c r="J2" s="19">
-        <f>EOMONTH(I2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43678</v>
       </c>
       <c r="K2" s="19">
-        <f>EOMONTH(J2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43709</v>
       </c>
       <c r="L2" s="18">
-        <f>EOMONTH(K2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43739</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3">
         <v>1234</v>
@@ -2385,7 +2426,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4">
         <v>5678</v>
@@ -2423,7 +2464,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4">
         <v>2121</v>
@@ -2461,7 +2502,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4">
         <v>9876</v>
@@ -2499,7 +2540,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5">
         <v>4321</v>
@@ -2537,47 +2578,47 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -2586,25 +2627,25 @@
         <v>0.88473599999999997</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2612,7 +2653,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000000000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2651,7 +2692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2678,45 +2719,45 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="19">
         <v>43466</v>
       </c>
       <c r="D2" s="19">
-        <f>EOMONTH(C2,0)+1</f>
+        <f t="shared" ref="D2:L2" si="0">EOMONTH(C2,0)+1</f>
         <v>43497</v>
       </c>
       <c r="E2" s="19">
-        <f>EOMONTH(D2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43525</v>
       </c>
       <c r="F2" s="19">
-        <f>EOMONTH(E2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43556</v>
       </c>
       <c r="G2" s="19">
-        <f>EOMONTH(F2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43586</v>
       </c>
       <c r="H2" s="19">
-        <f>EOMONTH(G2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43617</v>
       </c>
       <c r="I2" s="19">
-        <f>EOMONTH(H2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43647</v>
       </c>
       <c r="J2" s="19">
-        <f>EOMONTH(I2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43678</v>
       </c>
       <c r="K2" s="19">
-        <f>EOMONTH(J2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43709</v>
       </c>
       <c r="L2" s="18">
-        <f>EOMONTH(K2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43739</v>
       </c>
     </row>
@@ -2903,42 +2944,42 @@
     <row r="8" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -2947,25 +2988,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2973,7 +3014,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000001000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -3012,7 +3053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3027,83 +3068,83 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="37">
         <v>43466</v>
       </c>
       <c r="D2" s="36">
-        <f>EOMONTH(C2,0)+1</f>
+        <f t="shared" ref="D2:L2" si="0">EOMONTH(C2,0)+1</f>
         <v>43497</v>
       </c>
       <c r="E2" s="36">
-        <f>EOMONTH(D2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43525</v>
       </c>
       <c r="F2" s="36">
-        <f>EOMONTH(E2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43556</v>
       </c>
       <c r="G2" s="36">
-        <f>EOMONTH(F2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43586</v>
       </c>
       <c r="H2" s="36">
-        <f>EOMONTH(G2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43617</v>
       </c>
       <c r="I2" s="36">
-        <f>EOMONTH(H2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43647</v>
       </c>
       <c r="J2" s="36">
-        <f>EOMONTH(I2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43678</v>
       </c>
       <c r="K2" s="36">
-        <f>EOMONTH(J2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43709</v>
       </c>
       <c r="L2" s="35">
-        <f>EOMONTH(K2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43739</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="34">
         <v>1234</v>
@@ -3141,7 +3182,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="33">
         <v>5678</v>
@@ -3179,7 +3220,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="33">
         <v>2121</v>
@@ -3217,7 +3258,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="33">
         <v>9876</v>
@@ -3255,7 +3296,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="32">
         <v>4321</v>
@@ -3294,17 +3335,17 @@
     <row r="8" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="31">
         <v>2121</v>
@@ -3312,7 +3353,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="30">
         <v>43617</v>
@@ -3320,7 +3361,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -3328,7 +3369,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -3336,7 +3377,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -3345,7 +3386,7 @@
         <v>0.88473599999999997</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -3354,33 +3395,41 @@
         <v>0.88473599999999997</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{02339C5E-EC78-4B15-A2F3-49F7420B677F}">
+      <formula1>$B$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{7F5904B9-95B4-40CB-9BEE-852D8BA51786}">
+      <formula1>$C$2:$L$2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0200-000002000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -3419,8 +3468,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3434,83 +3483,83 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="47">
         <v>43466</v>
       </c>
       <c r="D2" s="47">
-        <f>EOMONTH(C2,0)+1</f>
+        <f t="shared" ref="D2:L2" si="0">EOMONTH(C2,0)+1</f>
         <v>43497</v>
       </c>
       <c r="E2" s="47">
-        <f>EOMONTH(D2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43525</v>
       </c>
       <c r="F2" s="47">
-        <f>EOMONTH(E2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43556</v>
       </c>
       <c r="G2" s="47">
-        <f>EOMONTH(F2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43586</v>
       </c>
       <c r="H2" s="47">
-        <f>EOMONTH(G2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43617</v>
       </c>
       <c r="I2" s="47">
-        <f>EOMONTH(H2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43647</v>
       </c>
       <c r="J2" s="47">
-        <f>EOMONTH(I2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43678</v>
       </c>
       <c r="K2" s="47">
-        <f>EOMONTH(J2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43709</v>
       </c>
       <c r="L2" s="46">
-        <f>EOMONTH(K2,0)+1</f>
+        <f t="shared" si="0"/>
         <v>43739</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4">
         <v>1234</v>
@@ -3548,7 +3597,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4">
         <v>5678</v>
@@ -3586,7 +3635,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4">
         <v>2121</v>
@@ -3624,7 +3673,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4">
         <v>9876</v>
@@ -3662,7 +3711,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5">
         <v>4321</v>
@@ -3700,18 +3749,18 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="31">
         <v>2121</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F10" s="40">
         <f ca="1">AVERAGE(OFFSET($B$2,MATCH($C$10,$B$3:$B$7,0),MATCH($C$11,$C$2:$L$2,0)-1,,-3))</f>
@@ -3720,13 +3769,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="30">
         <v>43617</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F11" s="42">
         <f>AVERAGE(E5:G5)</f>
@@ -3735,47 +3784,47 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C22" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
@@ -3784,12 +3833,12 @@
         <v>Product</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -3798,32 +3847,32 @@
         <v>ROW 1</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C31" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
@@ -3832,7 +3881,7 @@
         <v>0.88473599999999997</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
@@ -3841,12 +3890,12 @@
         <v>0.88473599999999997</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -3855,53 +3904,90 @@
         <v>#VALUE!</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>59</v>
+      <c r="D37" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C41" s="41">
-        <f ca="1">AVERAGE(OFFSET($B$2,MATCH($C$10,$B$3:$B$7,0),MATCH($C$11,$C$2:$L$2,0),1,2))</f>
+        <f t="shared" ref="C41" ca="1" si="1">AVERAGE(OFFSET($B$2,MATCH($C$10,$B$3:$B$7,0),MATCH($C$11,$C$2:$L$2,0),1,2))</f>
         <v>0.42271599999999998</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="40">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="41">
+        <f ca="1">SUM(OFFSET($B$2,MATCH($C$10,$B$3:$B$7,0),MATCH($C$11,$C$2:$L$2,0),1,2))</f>
+        <v>0.84543199999999996</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="41">
+        <f ca="1">MAX(OFFSET($B$2,MATCH($C$10,$B$3:$B$7,0),MATCH($C$11,$C$2:$L$2,0),1,2))</f>
+        <v>0.88473599999999997</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="41">
+        <f ca="1">MIN(OFFSET($B$2,MATCH($C$10,$B$3:$B$7,0),MATCH($C$11,$C$2:$L$2,0),1,2))</f>
+        <v>-3.9304000000000013E-2</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="41">
+        <f ca="1">_xlfn.STDEV.P(OFFSET($B$2,MATCH($C$10,$B$3:$B$7,0),MATCH($C$11,$C$2:$L$2,0),1,2))</f>
+        <v>0.46202000000000004</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="40">
         <f ca="1">AVERAGE(OFFSET($B$2,MATCH($C$10,$B$3:$B$7,0),MATCH($C$11,$C$2:$L$2,0)-1,,-3))</f>
         <v>0.27509333333333336</v>
       </c>
-      <c r="D44" s="39" t="s">
-        <v>54</v>
+      <c r="D48" s="39" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0300-000003000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
